--- a/data/processed/X_test_sin_outliers.xlsx
+++ b/data/processed/X_test_sin_outliers.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>9095.06825</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5272.1758</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>29330.98315</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>9301.893550000001</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>33750.2918</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4536.259</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2117.33885</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14210.53595</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3732.6251</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>10264.4421</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>18259.216</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7256.7231</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3947.4131</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>34489.3505625</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34489.3505625</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>34489.3505625</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>9800.888199999999</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>34489.3505625</v>
+        <v>47</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8233.0975</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>21774.32215</v>
+        <v>43</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>5080.096</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7441.501</v>
+        <v>43</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1256.299</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2755.02095</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>11085.5868</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>10923.9332</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>12644.589</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>18804.7524</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>9715.841</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1131.5066</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>15828.82173</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>11842.62375</v>
+        <v>57</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2020.5523</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>5693.4305</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2904.088</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>7448.40395</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2597.779</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>7337.748</v>
+        <v>43</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>23887.6627</v>
+        <v>52</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>34489.3505625</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>4687.797</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2643.2685</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>11674.13</v>
+        <v>56</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>12124.9924</v>
+        <v>59</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>4889.9995</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>12333.828</v>
+        <v>59</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>3579.8287</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>4391.652</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>34489.3505625</v>
+        <v>43</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>4463.2051</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>13887.204</v>
+        <v>63</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1719.4363</v>
+        <v>18</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>28476.73499</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1708.92575</v>
+        <v>18</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>10594.2257</v>
+        <v>56</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>25333.33284</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>3645.0894</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>34489.3505625</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>11848.141</v>
+        <v>58</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>10564.8845</v>
+        <v>53</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>13880.949</v>
+        <v>63</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>4753.6368</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>27941.28758</v>
+        <v>61</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>8017.06115</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>23045.56616</v>
+        <v>52</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>4133.64165</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>17942.106</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>25992.82104</v>
+        <v>52</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>3594.17085</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1682.597</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>6079.6715</v>
+        <v>38</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>9411.004999999999</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>8283.680700000001</v>
+        <v>48</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>6338.0756</v>
+        <v>39</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>7152.6714</v>
+        <v>44</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>4889.0368</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>4846.92015</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>11454.0215</v>
+        <v>56</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>4349.462</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>9101.798000000001</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1391.5287</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>28101.33305</v>
+        <v>62</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>5152.134</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>34489.3505625</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>34489.3505625</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>34489.3505625</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>4837.5823</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>10601.63225</v>
+        <v>55</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>8310.83915</v>
+        <v>43</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>11264.541</v>
+        <v>53</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>15230.32405</v>
+        <v>62</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>27037.9141</v>
+        <v>64</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>23401.30575</v>
+        <v>47</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>5031.26955</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>34489.3505625</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>6875.961</v>
+        <v>41</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>19719.6947</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1880.07</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>18765.87545</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>6402.29135</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>4527.18295</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1743.214</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>5709.1644</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>12363.547</v>
+        <v>56</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>13129.60345</v>
+        <v>61</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1727.54</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>7731.4271</v>
+        <v>44</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>21195.818</v>
+        <v>53</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1702.4553</v>
+        <v>18</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>23244.7902</v>
+        <v>53</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>23082.95533</v>
+        <v>19</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>2927.0647</v>
+        <v>26</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>13019.16105</v>
+        <v>58</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>34489.3505625</v>
+        <v>34</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>9778.3472</v>
+        <v>49</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1980.07</v>
+        <v>20</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>30259.99556</v>
+        <v>60</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>22478.6</v>
+        <v>43</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>6313.759</v>
+        <v>37</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>2789.0574</v>
+        <v>23</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>5594.8455</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>7261.741</v>
+        <v>41</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>11396.9002</v>
+        <v>52</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1986.9334</v>
+        <v>24</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>4719.73655</v>
+        <v>28</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>7749.1564</v>
+        <v>41</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>7345.7266</v>
+        <v>43</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>9288.0267</v>
+        <v>49</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>12244.531</v>
+        <v>59</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1837.2819</v>
+        <v>23</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>3972.9247</v>
+        <v>32</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>5934.3798</v>
+        <v>35</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>5836.5204</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>7935.29115</v>
+        <v>45</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>5649.715</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>12347.172</v>
+        <v>59</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>12404.8791</v>
+        <v>33</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>22144.032</v>
+        <v>42</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>34489.3505625</v>
+        <v>44</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>34489.3505625</v>
+        <v>37</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>5267.81815</v>
+        <v>36</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>9866.30485</v>
+        <v>51</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>2322.6218</v>
+        <v>26</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>33471.97189</v>
+        <v>52</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>2137.6536</v>
+        <v>25</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>23306.547</v>
+        <v>49</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>5261.46945</v>
+        <v>33</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>3761.292</v>
+        <v>31</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>11436.73815</v>
+        <v>51</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>4751.07</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>34489.3505625</v>
+        <v>53</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>2690.1138</v>
+        <v>23</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1146.7966</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>34489.3505625</v>
+        <v>32</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>6373.55735</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>4518.82625</v>
+        <v>34</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>13555.0049</v>
+        <v>62</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>8547.6913</v>
+        <v>47</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>34439.8559</v>
+        <v>19</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>34489.3505625</v>
+        <v>40</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>13607.36875</v>
+        <v>58</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>2710.82855</v>
+        <v>19</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>14988.432</v>
+        <v>64</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>2396.0959</v>
+        <v>23</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>3591.48</v>
+        <v>23</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>7162.0122</v>
+        <v>42</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>34489.3505625</v>
+        <v>63</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>34489.3505625</v>
+        <v>57</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>34489.3505625</v>
+        <v>44</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>2632.992</v>
+        <v>25</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>9182.17</v>
+        <v>49</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>6238.298</v>
+        <v>39</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>5757.41345</v>
+        <v>39</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>4239.89265</v>
+        <v>31</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>2154.361</v>
+        <v>22</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>21978.6769</v>
+        <v>47</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>16297.846</v>
+        <v>19</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>13831.1152</v>
+        <v>64</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>32734.1863</v>
+        <v>32</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>11830.6072</v>
+        <v>57</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>29523.1656</v>
+        <v>63</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>3167.45585</v>
+        <v>21</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>8428.069299999999</v>
+        <v>47</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>5012.471</v>
+        <v>34</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>5209.57885</v>
+        <v>29</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>2855.43755</v>
+        <v>24</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>20277.80751</v>
+        <v>29</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>3554.203</v>
+        <v>30</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>8569.861800000001</v>
+        <v>47</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>10594.50155</v>
+        <v>55</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>3597.596</v>
+        <v>23</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>7323.734819</v>
+        <v>18</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>2731.9122</v>
+        <v>22</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>34489.3505625</v>
+        <v>31</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>12981.3457</v>
+        <v>62</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>9283.562</v>
+        <v>51</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>2709.1119</v>
+        <v>19</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="n">
-        <v>12096.6512</v>
+        <v>54</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>2198.18985</v>
+        <v>18</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>8932.084000000001</v>
+        <v>50</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>3176.2877</v>
+        <v>26</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>24393.6224</v>
+        <v>52</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>4266.1658</v>
+        <v>30</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="n">
-        <v>22493.65964</v>
+        <v>19</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>17085.2676</v>
+        <v>20</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>16577.7795</v>
+        <v>27</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>8827.2099</v>
+        <v>50</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>4296.2712</v>
+        <v>22</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>7804.1605</v>
+        <v>48</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>3208.787</v>
+        <v>25</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>12957.118</v>
+        <v>62</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>22192.43711</v>
+        <v>57</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="C214" t="n">
-        <v>9432.925300000001</v>
+        <v>46</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>17043.3414</v>
+        <v>26</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>6593.5083</v>
+        <v>40</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>4137.5227</v>
+        <v>30</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>4779.6023</v>
+        <v>33</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="C219" t="n">
-        <v>14001.2867</v>
+        <v>59</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>12629.8967</v>
+        <v>60</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>5245.2269</v>
+        <v>35</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>2404.7338</v>
+        <v>21</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>6948.7008</v>
+        <v>44</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="n">
-        <v>6435.6237</v>
+        <v>37</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>34489.3505625</v>
+        <v>43</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>2055.3249</v>
+        <v>22</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>34489.3505625</v>
+        <v>28</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1731.677</v>
+        <v>19</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1639.5631</v>
+        <v>19</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>9377.904699999999</v>
+        <v>51</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="n">
-        <v>10977.2063</v>
+        <v>49</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1534.3045</v>
+        <v>21</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>9644.252500000001</v>
+        <v>51</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="C234" t="n">
-        <v>4529.477</v>
+        <v>29</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>34489.3505625</v>
+        <v>43</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>9991.03765</v>
+        <v>52</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>8125.7845</v>
+        <v>49</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="n">
-        <v>3877.30425</v>
+        <v>26</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>5979.731</v>
+        <v>42</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
       <c r="C240" t="n">
-        <v>34489.3505625</v>
+        <v>42</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1674.6323</v>
+        <v>22</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>13204.28565</v>
+        <v>60</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>34489.3505625</v>
+        <v>29</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>3021.80915</v>
+        <v>25</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>3392.9768</v>
+        <v>26</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1632.03625</v>
+        <v>19</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>2699.56835</v>
+        <v>26</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="C248" t="n">
-        <v>20177.67113</v>
+        <v>28</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>4076.497</v>
+        <v>32</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="C250" t="n">
-        <v>12592.5345</v>
+        <v>52</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1621.3402</v>
+        <v>19</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1875.344</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>7196.867</v>
+        <v>40</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>3161.454</v>
+        <v>28</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>12029.2867</v>
+        <v>57</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>2719.27975</v>
+        <v>19</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>18218.16139</v>
+        <v>25</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>12146.971</v>
+        <v>60</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>3292.52985</v>
+        <v>26</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>8688.858850000001</v>
+        <v>49</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -5653,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="n">
-        <v>6113.23105</v>
+        <v>31</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="n">
-        <v>8059.6791</v>
+        <v>40</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>13415.0381</v>
+        <v>61</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>18246.4955</v>
+        <v>27</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>34489.3505625</v>
+        <v>63</v>
       </c>
       <c r="D265" t="n">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>12222.8983</v>
+        <v>58</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>6067.12675</v>
+        <v>38</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>34489.3505625</v>
+        <v>54</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>9872.700999999999</v>
+        <v>51</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
